--- a/project/20180603-2/powermodel/freq_table.xlsx
+++ b/project/20180603-2/powermodel/freq_table.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4452A578-D0A8-4FDD-8B0F-293A35917553}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{097A9B16-C0A5-453C-AA54-3D66593A02C4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12647" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="26">
   <si>
     <t>海思960</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -112,23 +112,32 @@
   <si>
     <t>S808</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大核</t>
+  </si>
+  <si>
+    <t>S845</t>
+  </si>
+  <si>
+    <t>小核</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -136,7 +145,7 @@
     <font>
       <sz val="10.5"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -162,14 +171,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -447,18 +459,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S53"/>
+  <dimension ref="A1:U53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="T1" sqref="T1:U25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="4" max="4" width="9.1171875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -471,8 +483,12 @@
       <c r="R1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U1" s="2"/>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -497,8 +513,14 @@
       <c r="S2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3">
         <v>480</v>
       </c>
@@ -523,8 +545,14 @@
       <c r="S3" s="1">
         <v>300</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T3" s="2">
+        <v>300</v>
+      </c>
+      <c r="U3" s="2">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
       <c r="A4">
         <v>807</v>
       </c>
@@ -549,8 +577,14 @@
       <c r="S4" s="1">
         <v>345</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T4" s="2">
+        <v>403</v>
+      </c>
+      <c r="U4" s="2">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
       <c r="A5">
         <v>1018</v>
       </c>
@@ -575,8 +609,14 @@
       <c r="S5" s="1">
         <v>422</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T5" s="2">
+        <v>480</v>
+      </c>
+      <c r="U5" s="2">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6">
         <v>1306</v>
       </c>
@@ -601,8 +641,14 @@
       <c r="S6" s="1">
         <v>499</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T6" s="2">
+        <v>576</v>
+      </c>
+      <c r="U6" s="2">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7">
         <v>1517</v>
       </c>
@@ -627,8 +673,14 @@
       <c r="S7" s="1">
         <v>576</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T7" s="2">
+        <v>652</v>
+      </c>
+      <c r="U7" s="2">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
       <c r="A8">
         <v>1805</v>
       </c>
@@ -647,8 +699,14 @@
       <c r="S8" s="1">
         <v>652</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T8" s="2">
+        <v>748</v>
+      </c>
+      <c r="U8" s="2">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
       <c r="B9">
         <v>2304</v>
       </c>
@@ -664,8 +722,14 @@
       <c r="S9" s="1">
         <v>729</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T9" s="2">
+        <v>825</v>
+      </c>
+      <c r="U9" s="2">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
       <c r="B10">
         <v>2516</v>
       </c>
@@ -678,8 +742,14 @@
       <c r="S10" s="1">
         <v>806</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T10" s="2">
+        <v>902</v>
+      </c>
+      <c r="U10" s="2">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
       <c r="H11">
         <v>2362</v>
       </c>
@@ -689,16 +759,28 @@
       <c r="S11" s="1">
         <v>902</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T11" s="2">
+        <v>979</v>
+      </c>
+      <c r="U11" s="2">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
       <c r="R12" s="1">
         <v>960</v>
       </c>
       <c r="S12" s="1">
         <v>979</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T12" s="2">
+        <v>1056</v>
+      </c>
+      <c r="U12" s="2">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -723,8 +805,14 @@
       <c r="S13" s="1">
         <v>1056</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T13" s="2">
+        <v>1132</v>
+      </c>
+      <c r="U13" s="2">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -741,7 +829,7 @@
         <v>1</v>
       </c>
       <c r="H14" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="J14" t="s">
         <v>1</v>
@@ -764,8 +852,14 @@
       <c r="S14" s="1">
         <v>1132</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T14" s="2">
+        <v>1228</v>
+      </c>
+      <c r="U14" s="2">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
       <c r="A15" s="1">
         <v>652</v>
       </c>
@@ -805,8 +899,14 @@
       <c r="S15" s="1">
         <v>1190</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T15" s="2">
+        <v>1324</v>
+      </c>
+      <c r="U15" s="2">
+        <v>1843</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
       <c r="A16" s="1">
         <v>1036</v>
       </c>
@@ -846,8 +946,14 @@
       <c r="S16" s="1">
         <v>1267</v>
       </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T16" s="2">
+        <v>1420</v>
+      </c>
+      <c r="U16" s="2">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21">
       <c r="A17" s="1">
         <v>1401</v>
       </c>
@@ -887,8 +993,14 @@
       <c r="S17" s="1">
         <v>1344</v>
       </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T17" s="2">
+        <v>1516</v>
+      </c>
+      <c r="U17" s="2">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21">
       <c r="A18" s="1">
         <v>1689</v>
       </c>
@@ -928,8 +1040,14 @@
       <c r="S18" s="1">
         <v>1420</v>
       </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T18" s="2">
+        <v>1612</v>
+      </c>
+      <c r="U18" s="2">
+        <v>2092</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21">
       <c r="A19" s="1">
         <v>1804</v>
       </c>
@@ -969,8 +1087,14 @@
       <c r="S19" s="1">
         <v>1497</v>
       </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T19" s="2">
+        <v>1689</v>
+      </c>
+      <c r="U19" s="2">
+        <v>2169</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21">
       <c r="A20" s="1">
         <v>1958</v>
       </c>
@@ -1010,8 +1134,14 @@
       <c r="S20" s="1">
         <v>1574</v>
       </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T20" s="2">
+        <v>1766</v>
+      </c>
+      <c r="U20" s="2">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21">
       <c r="A21" s="1">
         <v>2016</v>
       </c>
@@ -1051,8 +1181,12 @@
       <c r="S21" s="1">
         <v>1651</v>
       </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T21" s="2"/>
+      <c r="U21" s="2">
+        <v>2323</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21">
       <c r="A22" s="1">
         <v>2150</v>
       </c>
@@ -1092,8 +1226,12 @@
       <c r="S22" s="1">
         <v>1728</v>
       </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T22" s="2"/>
+      <c r="U22" s="2">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21">
       <c r="A23" s="1">
         <v>2208</v>
       </c>
@@ -1133,8 +1271,12 @@
       <c r="S23" s="1">
         <v>1804</v>
       </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T23" s="2"/>
+      <c r="U23" s="2">
+        <v>2476</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21">
       <c r="E24" s="1">
         <v>1382</v>
       </c>
@@ -1162,8 +1304,12 @@
       <c r="S24" s="1">
         <v>1881</v>
       </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T24" s="2"/>
+      <c r="U24" s="2">
+        <v>2553</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21">
       <c r="E25" s="1">
         <v>1612</v>
       </c>
@@ -1186,8 +1332,12 @@
       <c r="S25" s="1">
         <v>1958</v>
       </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T25" s="2"/>
+      <c r="U25" s="2">
+        <v>2649</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21">
       <c r="A26" t="s">
         <v>11</v>
       </c>
@@ -1210,7 +1360,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:21">
       <c r="A27" t="s">
         <v>1</v>
       </c>
@@ -1233,7 +1383,7 @@
         <v>2112</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:21">
       <c r="A28">
         <v>633</v>
       </c>
@@ -1250,7 +1400,7 @@
         <v>2265</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:21">
       <c r="A29">
         <v>902</v>
       </c>
@@ -1264,7 +1414,7 @@
         <v>2361</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:21">
       <c r="A30">
         <v>1113</v>
       </c>
@@ -1284,7 +1434,7 @@
         <v>2457</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:21">
       <c r="A31">
         <v>1401</v>
       </c>
@@ -1310,7 +1460,7 @@
         <v>2572</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:21">
       <c r="A32">
         <v>1536</v>
       </c>
@@ -1339,7 +1489,7 @@
         <v>2649</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:14">
       <c r="A33">
         <v>1747</v>
       </c>
@@ -1365,7 +1515,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:14">
       <c r="A34">
         <v>1843</v>
       </c>
@@ -1388,7 +1538,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:14">
       <c r="E35">
         <v>1401</v>
       </c>
@@ -1408,7 +1558,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:14">
       <c r="A36" t="s">
         <v>14</v>
       </c>
@@ -1431,7 +1581,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:14">
       <c r="A37" t="s">
         <v>15</v>
       </c>
@@ -1457,7 +1607,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:14">
       <c r="A38">
         <v>221</v>
       </c>
@@ -1480,7 +1630,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:14">
       <c r="A39">
         <v>338</v>
       </c>
@@ -1506,7 +1656,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:14">
       <c r="A40">
         <v>416</v>
       </c>
@@ -1532,7 +1682,7 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:14">
       <c r="A41">
         <v>481</v>
       </c>
@@ -1556,7 +1706,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:14">
       <c r="A42">
         <v>559</v>
       </c>
@@ -1580,7 +1730,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:14">
       <c r="A43">
         <v>624</v>
       </c>
@@ -1603,7 +1753,7 @@
         <v>1768</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:14">
       <c r="A44">
         <v>715</v>
       </c>
@@ -1620,7 +1770,7 @@
         <v>1872</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:14">
       <c r="A45">
         <v>806</v>
       </c>
@@ -1637,7 +1787,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:14">
       <c r="A46">
         <v>897</v>
       </c>
@@ -1654,7 +1804,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:14">
       <c r="A47">
         <v>949</v>
       </c>
@@ -1671,7 +1821,7 @@
         <v>2184</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:14">
       <c r="A48">
         <v>1092</v>
       </c>
@@ -1685,7 +1835,7 @@
         <v>2288</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:14">
       <c r="A49">
         <v>1118</v>
       </c>
@@ -1699,7 +1849,7 @@
         <v>2392</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:14">
       <c r="A50">
         <v>1222</v>
       </c>
@@ -1713,7 +1863,7 @@
         <v>2496</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:14">
       <c r="A51">
         <v>1287</v>
       </c>
@@ -1727,7 +1877,7 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:14">
       <c r="A52">
         <v>1339</v>
       </c>
@@ -1738,7 +1888,7 @@
         <v>2197</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:14">
       <c r="A53">
         <v>1391</v>
       </c>
